--- a/Comm100-Work/面试资料/叶湘文/研发面试评估表_高级开发工程师_叶湘文.xlsx
+++ b/Comm100-Work/面试资料/叶湘文/研发面试评估表_高级开发工程师_叶湘文.xlsx
@@ -357,8 +357,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,7 +439,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -452,6 +456,8 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -467,6 +473,8 @@
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +755,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -787,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -807,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -833,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -847,13 +855,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
@@ -863,13 +871,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
@@ -890,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
@@ -902,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -914,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -926,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -939,14 +947,14 @@
       </c>
       <c r="C14" s="10">
         <f>SUM(C4:C13)</f>
-        <v>73.5</v>
+        <v>79</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(E4:E13)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>3</v>
